--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-0.15/avg_0.004_scores.xlsx
@@ -52,123 +52,117 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
@@ -181,12 +175,12 @@
     <t>keeps</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
@@ -202,19 +196,25 @@
     <t>bought</t>
   </si>
   <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
+    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -644,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2945736434108527</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
@@ -694,13 +694,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.9354838709677419</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,13 +720,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +746,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,13 +772,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -798,13 +798,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.8452012383900929</v>
+        <v>0.8436532507739938</v>
       </c>
       <c r="L8">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M8">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -824,13 +824,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -850,13 +850,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7142857142857143</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -876,13 +876,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.696969696969697</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L11">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M11">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -902,13 +902,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6888888888888889</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -928,13 +928,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6711864406779661</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="L13">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M13">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -954,13 +954,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.647887323943662</v>
+        <v>0.6380417335473515</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>795</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>795</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -980,13 +980,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6461538461538462</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1006,13 +1006,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6438356164383562</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1032,13 +1032,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6163723916532905</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L17">
-        <v>768</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>768</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>478</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1058,13 +1058,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6122448979591837</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1084,13 +1084,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.6041666666666666</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1113,10 +1113,10 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1136,13 +1136,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5857142857142857</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1162,13 +1162,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5833333333333334</v>
+        <v>0.578125</v>
       </c>
       <c r="L22">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1188,13 +1188,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5771428571428572</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L23">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1214,13 +1214,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5480769230769231</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L24">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1240,13 +1240,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5263157894736842</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1266,13 +1266,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5230769230769231</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1292,13 +1292,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5209580838323353</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L27">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1318,13 +1318,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.515625</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1344,13 +1344,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.5079365079365079</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1370,13 +1370,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.5060240963855421</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1396,13 +1396,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4871794871794872</v>
+        <v>0.4610778443113773</v>
       </c>
       <c r="L31">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="M31">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1422,13 +1422,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.4444444444444444</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1448,13 +1448,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4135338345864661</v>
+        <v>0.39</v>
       </c>
       <c r="L33">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1474,13 +1474,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.4078947368421053</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1500,13 +1500,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.4036144578313253</v>
+        <v>0.382716049382716</v>
       </c>
       <c r="L35">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1526,13 +1526,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.3947368421052632</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1552,13 +1552,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.39</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1578,13 +1578,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3357843137254902</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L38">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>271</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1604,13 +1604,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.3308270676691729</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L39">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1630,13 +1630,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.3243243243243243</v>
+        <v>0.2918287937743191</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>75</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1656,13 +1656,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.3229571984435798</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L41">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>174</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1682,13 +1682,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.2871287128712871</v>
+        <v>0.2780821917808219</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>72</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1708,13 +1708,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.2805755395683453</v>
+        <v>0.2443487621097955</v>
       </c>
       <c r="L43">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>100</v>
+        <v>702</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1734,13 +1734,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.2767123287671233</v>
+        <v>0.2440191387559809</v>
       </c>
       <c r="L44">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="M44">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>528</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1760,13 +1760,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.2465016146393972</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L45">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="M45">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>700</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1786,13 +1786,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2344497607655502</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L46">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="M46">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>160</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1812,13 +1812,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.2251655629139073</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1838,13 +1838,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.2080536912751678</v>
+        <v>0.1682119205298013</v>
       </c>
       <c r="L48">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="M48">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>118</v>
+        <v>628</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1864,13 +1864,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.2068965517241379</v>
+        <v>0.149616368286445</v>
       </c>
       <c r="L49">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="M49">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>253</v>
+        <v>665</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1890,13 +1890,13 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.1801324503311258</v>
+        <v>0.140893470790378</v>
       </c>
       <c r="L50">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="M50">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>619</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1916,25 +1916,25 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.1687979539641944</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="L51">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="M51">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>650</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1942,13 +1942,13 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.134020618556701</v>
+        <v>0.1362530413625304</v>
       </c>
       <c r="L52">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M52">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>252</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1968,25 +1968,25 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.1297297297297297</v>
+        <v>0.1070110701107011</v>
       </c>
       <c r="L53">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>322</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -1994,13 +1994,13 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.121654501216545</v>
+        <v>0.1068181818181818</v>
       </c>
       <c r="L54">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M54">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>361</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2020,13 +2020,13 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.09318181818181819</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="L55">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M55">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2046,13 +2046,13 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.09307875894988067</v>
+        <v>0.0883054892601432</v>
       </c>
       <c r="L56">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M56">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2072,13 +2072,13 @@
         <v>64</v>
       </c>
       <c r="K57">
-        <v>0.08771929824561403</v>
+        <v>0.06529850746268656</v>
       </c>
       <c r="L57">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M57">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>416</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2098,25 +2098,25 @@
         <v>65</v>
       </c>
       <c r="K58">
-        <v>0.06876790830945559</v>
+        <v>0.06456241032998565</v>
       </c>
       <c r="L58">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M58">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2124,25 +2124,25 @@
         <v>66</v>
       </c>
       <c r="K59">
-        <v>0.06535947712418301</v>
+        <v>0.0259515570934256</v>
       </c>
       <c r="L59">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N59">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O59">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>1001</v>
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
